--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Title</t>
   </si>
@@ -25,52 +25,43 @@
     <t>Location</t>
   </si>
   <si>
+    <t>BELLS, large antiques, $25</t>
+  </si>
+  <si>
     <t>Leather hides 100 per hide.  There are approx. 70</t>
   </si>
   <si>
+    <t>Antique Furniture</t>
+  </si>
+  <si>
+    <t>Antique Flexible Flyers - $50ea or $75 for both</t>
+  </si>
+  <si>
     <t>Oddities insect</t>
   </si>
   <si>
-    <t>Estate / Garage Sale - Jan 26th to 28th</t>
-  </si>
-  <si>
-    <t>Antique Furniture</t>
-  </si>
-  <si>
-    <t>BELLS, large antiques, $25</t>
-  </si>
-  <si>
-    <t>Antique Flexible Flyers - $50ea or $75 for both</t>
+    <t>$25</t>
   </si>
   <si>
     <t>$100</t>
   </si>
   <si>
+    <t>$1$250</t>
+  </si>
+  <si>
+    <t>$50$99</t>
+  </si>
+  <si>
     <t>$175</t>
   </si>
   <si>
-    <t>$1$5,000</t>
-  </si>
-  <si>
-    <t>$1$250</t>
-  </si>
-  <si>
-    <t>$25</t>
-  </si>
-  <si>
-    <t>$50$99</t>
+    <t>Denver, CO</t>
   </si>
   <si>
     <t>Commerce City, CO</t>
   </si>
   <si>
     <t>Hobbies</t>
-  </si>
-  <si>
-    <t>Lone Tree, CO</t>
-  </si>
-  <si>
-    <t>Denver, CO</t>
   </si>
 </sst>
 </file>
@@ -428,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,10 +441,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -461,10 +452,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -472,10 +463,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -483,10 +474,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -494,21 +485,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Title</t>
   </si>
@@ -25,43 +25,46 @@
     <t>Location</t>
   </si>
   <si>
-    <t>BELLS, large antiques, $25</t>
-  </si>
-  <si>
     <t>Leather hides 100 per hide.  There are approx. 70</t>
   </si>
   <si>
-    <t>Antique Furniture</t>
-  </si>
-  <si>
-    <t>Antique Flexible Flyers - $50ea or $75 for both</t>
-  </si>
-  <si>
-    <t>Oddities insect</t>
-  </si>
-  <si>
-    <t>$25</t>
+    <t>Antiques &amp; Collectibles *read*</t>
+  </si>
+  <si>
+    <t>Collectables</t>
+  </si>
+  <si>
+    <t>PINK DEPRESSION GLASS</t>
+  </si>
+  <si>
+    <t>Chest</t>
   </si>
   <si>
     <t>$100</t>
   </si>
   <si>
-    <t>$1$250</t>
-  </si>
-  <si>
-    <t>$50$99</t>
-  </si>
-  <si>
-    <t>$175</t>
-  </si>
-  <si>
-    <t>Denver, CO</t>
+    <t>$5</t>
+  </si>
+  <si>
+    <t>$150</t>
+  </si>
+  <si>
+    <t>$60·In stock</t>
+  </si>
+  <si>
+    <t>$25·In stock</t>
   </si>
   <si>
     <t>Commerce City, CO</t>
   </si>
   <si>
+    <t>Wheat Ridge, CO</t>
+  </si>
+  <si>
     <t>Hobbies</t>
+  </si>
+  <si>
+    <t>Home goods</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -477,7 +480,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
